--- a/Project/Addresses table.xlsx
+++ b/Project/Addresses table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E62076-8C13-4E0E-8EF6-4873CD8C9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9617A6-EB67-413F-B1C7-5442FF5AC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-32400" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>DCMGM</t>
   </si>
   <si>
-    <t>Подсети менеджмент в датацентре</t>
-  </si>
-  <si>
     <t>Подсеть менеджмента в офисе</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>SSH</t>
+  </si>
+  <si>
+    <t>Подсеть менеджмент в датацентре</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -893,27 +927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,16 +934,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,9 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,53 +1252,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="H2" s="22" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-      <c r="R2" s="19" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="R2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
@@ -1413,24 +1413,24 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="M5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="R5" s="13" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="R5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="14"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1445,40 +1445,40 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="U6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="13">
         <v>113</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>111</v>
+      <c r="D8" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>29</v>
@@ -1549,10 +1549,10 @@
         <v>99</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U8" s="5"/>
     </row>
@@ -1569,10 +1569,10 @@
       <c r="D9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="M9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1583,32 +1583,32 @@
         <v>100</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="13">
         <v>201</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
       <c r="M10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1619,10 +1619,10 @@
         <v>101</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U10" s="5"/>
     </row>
@@ -1703,12 +1703,12 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
       <c r="M13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1723,16 +1723,16 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1792,24 +1792,24 @@
     </row>
     <row r="17" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="19" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="M18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="R18" s="26" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="R18" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="25"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
@@ -1840,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="8:21" x14ac:dyDescent="0.25">
@@ -1888,60 +1888,60 @@
       </c>
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="13" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="M21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="14"/>
-      <c r="R21" s="10" t="s">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="R21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="12"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>53</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1963,7 +1963,7 @@
         <v>53</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1979,55 +1979,55 @@
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="P24" s="5"/>
       <c r="R24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="5"/>
     </row>
     <row r="25" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
       <c r="M25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="5"/>
       <c r="R25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
       <c r="M26" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="5"/>
       <c r="R26" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2047,13 +2047,13 @@
         <v>48</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="5"/>
       <c r="R27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2073,59 +2073,59 @@
         <v>999</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="5"/>
       <c r="R28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
       <c r="M29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="5"/>
       <c r="R29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="5"/>
     </row>
     <row r="30" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="5"/>
       <c r="R30" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -2141,31 +2141,31 @@
         <v>53</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="5"/>
       <c r="R31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="M32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="R32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2173,18 +2173,18 @@
     </row>
     <row r="33" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="22" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="M34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
@@ -2239,42 +2239,42 @@
       </c>
     </row>
     <row r="37" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="14"/>
-      <c r="M37" s="10" t="s">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="M37" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="28"/>
     </row>
     <row r="38" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="32" t="s">
+      <c r="M38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="33" t="s">
+      <c r="P38" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2295,17 +2295,17 @@
       <c r="P39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
     </row>
     <row r="40" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="5"/>
@@ -2313,23 +2313,23 @@
         <v>78</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P40" s="5"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
     </row>
     <row r="41" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="5"/>
@@ -2337,23 +2337,23 @@
         <v>79</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P41" s="5"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
     </row>
     <row r="42" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H42" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="5"/>
@@ -2361,23 +2361,23 @@
         <v>80</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P42" s="5"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
     </row>
     <row r="43" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H43" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="5"/>
@@ -2387,17 +2387,17 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="5"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
     </row>
     <row r="44" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H44" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="5"/>
@@ -2407,17 +2407,17 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="5"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
     </row>
     <row r="45" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="5"/>
@@ -2427,17 +2427,17 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="5"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
     </row>
     <row r="46" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="5"/>
@@ -2447,17 +2447,17 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="5"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H47" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="5"/>
@@ -2467,17 +2467,17 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="5"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
     </row>
     <row r="48" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="8"/>
@@ -2490,11 +2490,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M5:P5"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H26:K26"/>
@@ -2502,16 +2507,11 @@
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="R21:U21"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,36 +2532,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>134</v>
+      <c r="A1" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>144</v>
+      <c r="A2" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2571,42 +2571,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2627,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Addresses table.xlsx
+++ b/Project/Addresses table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9617A6-EB67-413F-B1C7-5442FF5AC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597845C-153E-4025-9C20-3AB94053A234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
   <si>
     <t>VLAN</t>
   </si>
@@ -116,9 +119,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
     <t>SEC</t>
   </si>
   <si>
@@ -386,12 +386,6 @@
     <t>Printer6</t>
   </si>
   <si>
-    <t>Printer7</t>
-  </si>
-  <si>
-    <t>Printer8</t>
-  </si>
-  <si>
     <t>192.168.113.0</t>
   </si>
   <si>
@@ -440,18 +434,12 @@
     <t>HSRP</t>
   </si>
   <si>
-    <t>OSPF (Rip+Distribution)</t>
-  </si>
-  <si>
     <t>ACL</t>
   </si>
   <si>
     <t>Portsecurity</t>
   </si>
   <si>
-    <t>STP</t>
-  </si>
-  <si>
     <t>ISP + Services</t>
   </si>
   <si>
@@ -525,6 +513,78 @@
   </si>
   <si>
     <t>Подсеть менеджмент в датацентре</t>
+  </si>
+  <si>
+    <t>PARKINGLOT</t>
+  </si>
+  <si>
+    <t>BackUp?</t>
+  </si>
+  <si>
+    <t>BackupSRV</t>
+  </si>
+  <si>
+    <t>DCL3SW1</t>
+  </si>
+  <si>
+    <t>DCL3SW2</t>
+  </si>
+  <si>
+    <t>SW-DC</t>
+  </si>
+  <si>
+    <t>RVSTP</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Настроен в DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На всех коммутаторах созданы. </t>
+  </si>
+  <si>
+    <t>Настроено в DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В офисе LACP, в DC PAgP подняты </t>
+  </si>
+  <si>
+    <t>RVSTP включен на всех необходимых устройствах. Не настроен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF </t>
+  </si>
+  <si>
+    <t>Включен на L3, заданы Router-ID</t>
+  </si>
+  <si>
+    <t>192.+H8:K34168.0.2</t>
+  </si>
+  <si>
+    <t>DSW1</t>
+  </si>
+  <si>
+    <t>DSW2</t>
+  </si>
+  <si>
+    <t>SrvSW</t>
+  </si>
+  <si>
+    <t>AccSW1</t>
+  </si>
+  <si>
+    <t>AccSW2</t>
+  </si>
+  <si>
+    <t>SecSW</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
   </si>
 </sst>
 </file>
@@ -566,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -859,11 +919,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -891,24 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,13 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,6 +997,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1227,15 +1299,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1247,11 +1319,11 @@
     <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1264,43 +1336,43 @@
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="H2" s="29" t="s">
+      <c r="H1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="H2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="23" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="R2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1329,28 +1401,28 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1361,7 +1433,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
@@ -1379,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>0</v>
@@ -1391,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>0</v>
@@ -1400,7 +1472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1413,26 +1485,26 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="M5" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="R5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="R5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -1482,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1498,173 +1570,204 @@
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>113</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="R8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="M9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="R9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="H10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
       <c r="M10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="R10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="R11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>999</v>
       </c>
@@ -1681,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
@@ -1690,39 +1793,61 @@
         <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="R12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>777</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
       <c r="M13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="R13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H14" s="14" t="s">
         <v>27</v>
       </c>
@@ -1736,55 +1861,59 @@
         <v>2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="R14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="5"/>
       <c r="R15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
       <c r="M16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
       <c r="R16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -1792,61 +1921,61 @@
     </row>
     <row r="17" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
-      <c r="R18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="R18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="8:21" x14ac:dyDescent="0.25">
@@ -1854,7 +1983,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>0</v>
@@ -1866,7 +1995,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>0</v>
@@ -1878,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>0</v>
@@ -1888,24 +2017,24 @@
       </c>
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="M21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="R21" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
+      <c r="H21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="M21" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="R21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H22" s="14" t="s">
@@ -1947,52 +2076,60 @@
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H24" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P24" s="5"/>
       <c r="R24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="U24" s="5"/>
     </row>
     <row r="25" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2001,36 +2138,52 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="M25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="R25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
       <c r="M26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="R26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="U26" s="5"/>
     </row>
     <row r="27" spans="8:21" x14ac:dyDescent="0.25">
@@ -2038,22 +2191,22 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="5"/>
       <c r="R27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2064,7 +2217,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>0</v>
@@ -2073,33 +2226,33 @@
         <v>999</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="5"/>
       <c r="R28" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
+      <c r="H29" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
       <c r="M29" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="5"/>
       <c r="R29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -2119,13 +2272,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="5"/>
       <c r="R30" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -2133,21 +2286,21 @@
     </row>
     <row r="31" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="5"/>
       <c r="R31" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -2159,13 +2312,13 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="M32" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="R32" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2173,43 +2326,43 @@
     </row>
     <row r="33" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="M34" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="M34" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
     </row>
     <row r="35" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="8:34" x14ac:dyDescent="0.25">
@@ -2217,7 +2370,7 @@
         <v>21</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>0</v>
@@ -2229,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>0</v>
@@ -2239,18 +2392,18 @@
       </c>
     </row>
     <row r="37" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H37" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="M37" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="28"/>
+      <c r="H37" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="M37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H38" s="14" t="s">
@@ -2280,20 +2433,24 @@
     </row>
     <row r="39" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE39" s="9"/>
       <c r="AF39" s="10"/>
@@ -2302,21 +2459,23 @@
     </row>
     <row r="40" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="K40" s="5"/>
       <c r="M40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>158</v>
+        <v>77</v>
+      </c>
+      <c r="N40" t="s">
+        <v>168</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P40" s="5"/>
       <c r="AE40" s="9"/>
@@ -2326,21 +2485,23 @@
     </row>
     <row r="41" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="K41" s="5"/>
       <c r="M41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>158</v>
+        <v>78</v>
+      </c>
+      <c r="N41" t="s">
+        <v>168</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P41" s="5"/>
       <c r="AE41" s="9"/>
@@ -2350,21 +2511,21 @@
     </row>
     <row r="42" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="5"/>
       <c r="M42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P42" s="5"/>
       <c r="AE42" s="9"/>
@@ -2374,18 +2535,22 @@
     </row>
     <row r="43" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="5"/>
       <c r="M43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="P43" s="5"/>
       <c r="AE43" s="9"/>
       <c r="AF43" s="10"/>
@@ -2394,18 +2559,22 @@
     </row>
     <row r="44" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="5"/>
       <c r="M44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="P44" s="5"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="10"/>
@@ -2414,15 +2583,15 @@
     </row>
     <row r="45" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="5"/>
       <c r="M45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2434,15 +2603,15 @@
     </row>
     <row r="46" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="5"/>
       <c r="M46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2454,15 +2623,15 @@
     </row>
     <row r="47" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="5"/>
       <c r="M47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2474,15 +2643,15 @@
     </row>
     <row r="48" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="8"/>
       <c r="M48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -2495,16 +2664,16 @@
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="M21:P21"/>
@@ -2520,93 +2689,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D4D11-F3F1-4BBC-958C-BAEB76AFD1FE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="122.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>143</v>
+      <c r="A2" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>134</v>
+      <c r="A3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
+      <c r="A4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
+      <c r="A6" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
+      <c r="A7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>138</v>
+      <c r="A13" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Addresses table.xlsx
+++ b/Project/Addresses table.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597845C-153E-4025-9C20-3AB94053A234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C96221-A5A6-448A-AFC3-FEB9DAE58858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-32400" windowWidth="21840" windowHeight="38040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Configs" sheetId="3" r:id="rId3"/>
+    <sheet name="ACL" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Wildcard masks" sheetId="4" r:id="rId4"/>
+    <sheet name="Configs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="333">
   <si>
     <t>VLAN</t>
   </si>
@@ -185,9 +188,6 @@
     <t>255.255.255.224</t>
   </si>
   <si>
-    <t>192.168.100.1-192.168.100.31</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -212,386 +212,833 @@
     <t>192.168.17.2</t>
   </si>
   <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>192.168.200.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>192.168.200.1-192.168.200.127</t>
+  </si>
+  <si>
+    <t>192.168.200.1</t>
+  </si>
+  <si>
+    <t>192.168.200.2</t>
+  </si>
+  <si>
+    <t>192.168.200.3</t>
+  </si>
+  <si>
+    <t>192.168.200.4</t>
+  </si>
+  <si>
+    <t>192.168.200.5</t>
+  </si>
+  <si>
+    <t>192.168.200.6</t>
+  </si>
+  <si>
+    <t>192.168.200.7</t>
+  </si>
+  <si>
+    <t>192.168.200.8</t>
+  </si>
+  <si>
+    <t>192.168.200.9</t>
+  </si>
+  <si>
+    <t>192.168.200.10</t>
+  </si>
+  <si>
+    <t>192.168.250.0</t>
+  </si>
+  <si>
+    <t>192.168.250.0/27</t>
+  </si>
+  <si>
+    <t>192.168.250.1-192.168.250.31</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Подсеть серверов офис</t>
+  </si>
+  <si>
+    <t>192.168.210.0/25</t>
+  </si>
+  <si>
+    <t>OfficeSRV</t>
+  </si>
+  <si>
+    <t>DCSRV</t>
+  </si>
+  <si>
+    <t>Подсеть серверов в Датацентре</t>
+  </si>
+  <si>
+    <t>192.168.210.0</t>
+  </si>
+  <si>
+    <t>192.168.210.1-192.168.210.127</t>
+  </si>
+  <si>
+    <t>192.168.210.1</t>
+  </si>
+  <si>
+    <t>192.168.210.2</t>
+  </si>
+  <si>
+    <t>192.168.210.3</t>
+  </si>
+  <si>
+    <t>192.168.210.4</t>
+  </si>
+  <si>
+    <t>192.168.210.5</t>
+  </si>
+  <si>
+    <t>192.168.210.6</t>
+  </si>
+  <si>
+    <t>192.168.210.7</t>
+  </si>
+  <si>
+    <t>192.168.210.8</t>
+  </si>
+  <si>
+    <t>192.168.210.9</t>
+  </si>
+  <si>
+    <t>192.168.210.10</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>192.168.113.0/28</t>
+  </si>
+  <si>
+    <t>DCMGM</t>
+  </si>
+  <si>
+    <t>Подсеть менеджмента в офисе</t>
+  </si>
+  <si>
+    <t>192.168.113.0</t>
+  </si>
+  <si>
+    <t>192.168.113.1-192.168.113.254</t>
+  </si>
+  <si>
+    <t>192.168.113.1</t>
+  </si>
+  <si>
+    <t>192.168.113.2</t>
+  </si>
+  <si>
+    <t>192.168.113.3</t>
+  </si>
+  <si>
+    <t>192.168.113.4</t>
+  </si>
+  <si>
+    <t>192.168.113.5</t>
+  </si>
+  <si>
+    <t>192.168.113.6</t>
+  </si>
+  <si>
+    <t>192.168.113.7</t>
+  </si>
+  <si>
+    <t>192.168.113.8</t>
+  </si>
+  <si>
+    <t>192.168.113.9</t>
+  </si>
+  <si>
+    <t>192.168.113.10</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>Etherchannel</t>
+  </si>
+  <si>
+    <t>HSRP</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Portsecurity</t>
+  </si>
+  <si>
+    <t>Address Table</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>192.168.250.1</t>
+  </si>
+  <si>
+    <t>192.168.250.2</t>
+  </si>
+  <si>
+    <t>192.168.250.3</t>
+  </si>
+  <si>
+    <t>192.168.250.4</t>
+  </si>
+  <si>
+    <t>192.168.250.5</t>
+  </si>
+  <si>
+    <t>192.168.250.6</t>
+  </si>
+  <si>
+    <t>192.168.250.7</t>
+  </si>
+  <si>
+    <t>192.168.250.8</t>
+  </si>
+  <si>
+    <t>192.168.250.9</t>
+  </si>
+  <si>
+    <t>192.168.250.10</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>ISServices</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>IT Jump</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Подсеть менеджмент в датацентре</t>
+  </si>
+  <si>
+    <t>PARKINGLOT</t>
+  </si>
+  <si>
+    <t>BackUp?</t>
+  </si>
+  <si>
+    <t>BackupSRV</t>
+  </si>
+  <si>
+    <t>DCL3SW1</t>
+  </si>
+  <si>
+    <t>DCL3SW2</t>
+  </si>
+  <si>
+    <t>SW-DC</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF </t>
+  </si>
+  <si>
+    <t>DSW1</t>
+  </si>
+  <si>
+    <t>DSW2</t>
+  </si>
+  <si>
+    <t>SrvSW</t>
+  </si>
+  <si>
+    <t>AccSW1</t>
+  </si>
+  <si>
+    <t>AccSW2</t>
+  </si>
+  <si>
+    <t>SecSW</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>inter vlan routing (SVI)</t>
+  </si>
+  <si>
+    <t>ISP + Services + NAT</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>DHCP 192.168.0.10-192.168.1.254</t>
+  </si>
+  <si>
+    <t>192.168.15.3</t>
+  </si>
+  <si>
+    <t>192.168.17.3</t>
+  </si>
+  <si>
+    <t>172.16.0.2</t>
+  </si>
+  <si>
+    <t>172.16.0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP 172.16.0.10-172.16.0.254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch off ports </t>
+  </si>
+  <si>
+    <t>RVSTP+ portfast</t>
+  </si>
+  <si>
+    <t>172.16.0.4</t>
+  </si>
+  <si>
+    <t>192.168.0.4</t>
+  </si>
+  <si>
+    <t>DHCP 192.168.15.5-192.168.15.14</t>
+  </si>
+  <si>
+    <t>DHCP 192.168.17.5-192.168.17.14</t>
+  </si>
+  <si>
+    <t>192.168.17.4</t>
+  </si>
+  <si>
+    <t>192.168.15.4</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>Netmask</t>
+  </si>
+  <si>
+    <t>Wildcard mask</t>
+  </si>
+  <si>
+    <t>/32</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>/31</t>
+  </si>
+  <si>
+    <t>255.255.255.254</t>
+  </si>
+  <si>
+    <t>0.0.0.1</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>0.0.0.3</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>0.0.0.7</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>0.0.0.15</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>0.0.0.31</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>0.0.0.63</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>0.0.0.127</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>0.0.0.255</t>
+  </si>
+  <si>
+    <t>/23</t>
+  </si>
+  <si>
+    <t>0.0.1.255</t>
+  </si>
+  <si>
+    <t>/22</t>
+  </si>
+  <si>
+    <t>255.255.252.0</t>
+  </si>
+  <si>
+    <t>0.0.3.255</t>
+  </si>
+  <si>
+    <t>/21</t>
+  </si>
+  <si>
+    <t>255.255.248.0</t>
+  </si>
+  <si>
+    <t>0.0.7.255</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>255.255.240.0</t>
+  </si>
+  <si>
+    <t>0.0.15.255</t>
+  </si>
+  <si>
+    <t>/19</t>
+  </si>
+  <si>
+    <t>255.255.224.0</t>
+  </si>
+  <si>
+    <t>0.0.31.255</t>
+  </si>
+  <si>
+    <t>/18</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>0.0.63.255</t>
+  </si>
+  <si>
+    <t>/17</t>
+  </si>
+  <si>
+    <t>255.255.128.0</t>
+  </si>
+  <si>
+    <t>0.0.127.255</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>0.0.255.255</t>
+  </si>
+  <si>
+    <t>/15</t>
+  </si>
+  <si>
+    <t>255.254.0.0</t>
+  </si>
+  <si>
+    <t>0.1.255.255</t>
+  </si>
+  <si>
+    <t>/14</t>
+  </si>
+  <si>
+    <t>255.252.0.0</t>
+  </si>
+  <si>
+    <t>0.3.255.255</t>
+  </si>
+  <si>
+    <t>/13</t>
+  </si>
+  <si>
+    <t>255.248.0.0</t>
+  </si>
+  <si>
+    <t>0.7.255.255</t>
+  </si>
+  <si>
+    <t>/12</t>
+  </si>
+  <si>
+    <t>255.240.0.0</t>
+  </si>
+  <si>
+    <t>0.15.255.255</t>
+  </si>
+  <si>
+    <t>/11</t>
+  </si>
+  <si>
+    <t>255.224.0.0</t>
+  </si>
+  <si>
+    <t>0.31.255.255</t>
+  </si>
+  <si>
+    <t>/10</t>
+  </si>
+  <si>
+    <t>255.192.0.0</t>
+  </si>
+  <si>
+    <t>0.63.255.255</t>
+  </si>
+  <si>
+    <t>/9</t>
+  </si>
+  <si>
+    <t>255.128.0.0</t>
+  </si>
+  <si>
+    <t>0.127.255.255</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>0.255.255.255</t>
+  </si>
+  <si>
+    <t>/7</t>
+  </si>
+  <si>
+    <t>254.0.0.0</t>
+  </si>
+  <si>
+    <t>1.255.255.255</t>
+  </si>
+  <si>
+    <t>/6</t>
+  </si>
+  <si>
+    <t>252.0.0.0</t>
+  </si>
+  <si>
+    <t>3.255.255.255</t>
+  </si>
+  <si>
+    <t>/5</t>
+  </si>
+  <si>
+    <t>248.0.0.0</t>
+  </si>
+  <si>
+    <t>7.255.255.255</t>
+  </si>
+  <si>
+    <t>/4</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <t>15.255.255.255</t>
+  </si>
+  <si>
+    <t>/3</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>31.255.255.255</t>
+  </si>
+  <si>
+    <t>/2</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>63.255.255.255</t>
+  </si>
+  <si>
+    <t>/1</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>127.255.255.255</t>
+  </si>
+  <si>
+    <t>/0</t>
+  </si>
+  <si>
+    <t>wildcart mask</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>router ospf 1</t>
+  </si>
+  <si>
+    <t>router-id 1.1.1.1</t>
+  </si>
+  <si>
+    <t>log-adjacency-changes</t>
+  </si>
+  <si>
+    <t>network 192.168.0.0 0.0.1.255 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.200.0 0.0.0.127 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.13.0 0.0.0.255 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.15.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.17.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/1</t>
+  </si>
+  <si>
+    <t>no switchport</t>
+  </si>
+  <si>
+    <t>ip address 10.1.1.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip ospf 1 area 0</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/2</t>
+  </si>
+  <si>
+    <t>ip address 10.0.0.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/3</t>
+  </si>
+  <si>
+    <t>ip address 10.3.1.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.1.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.0.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 2.2.2.2</t>
+  </si>
+  <si>
+    <t>ip address 10.1.1.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 3.3.3.3</t>
+  </si>
+  <si>
+    <t>network 192.168.113.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.210.0 0.0.0.127 area 0</t>
+  </si>
+  <si>
+    <t>ip address 10.1.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.1.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 4.4.4.4</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip access-list ext </t>
+  </si>
+  <si>
+    <t>Src network</t>
+  </si>
+  <si>
+    <t>Dst Network</t>
+  </si>
+  <si>
+    <t>deny ip</t>
+  </si>
+  <si>
+    <t>permit ip</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
     <t>192.168.100.0</t>
   </si>
   <si>
-    <t>192.168.100.1</t>
-  </si>
-  <si>
-    <t>192.168.100.2</t>
-  </si>
-  <si>
-    <t>192.168.100.3</t>
-  </si>
-  <si>
-    <t>192.168.100.4</t>
-  </si>
-  <si>
-    <t>192.168.100.5</t>
-  </si>
-  <si>
-    <t>192.168.100.6</t>
-  </si>
-  <si>
-    <t>192.168.100.7</t>
-  </si>
-  <si>
-    <t>192.168.100.8</t>
-  </si>
-  <si>
-    <t>192.168.100.9</t>
-  </si>
-  <si>
-    <t>192.168.100.10</t>
-  </si>
-  <si>
-    <t>172.16.0.1</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
-    <t>192.168.200.0</t>
-  </si>
-  <si>
-    <t>255.255.255.128</t>
-  </si>
-  <si>
-    <t>192.168.200.1-192.168.200.127</t>
-  </si>
-  <si>
-    <t>192.168.200.1</t>
-  </si>
-  <si>
-    <t>192.168.200.2</t>
-  </si>
-  <si>
-    <t>192.168.200.3</t>
-  </si>
-  <si>
-    <t>192.168.200.4</t>
-  </si>
-  <si>
-    <t>192.168.200.5</t>
-  </si>
-  <si>
-    <t>192.168.200.6</t>
-  </si>
-  <si>
-    <t>192.168.200.7</t>
-  </si>
-  <si>
-    <t>192.168.200.8</t>
-  </si>
-  <si>
-    <t>192.168.200.9</t>
-  </si>
-  <si>
-    <t>192.168.200.10</t>
-  </si>
-  <si>
-    <t>192.168.250.0</t>
-  </si>
-  <si>
-    <t>192.168.250.0/27</t>
-  </si>
-  <si>
-    <t>192.168.250.1-192.168.250.31</t>
-  </si>
-  <si>
-    <t>Static</t>
-  </si>
-  <si>
-    <t>Подсеть серверов офис</t>
-  </si>
-  <si>
-    <t>192.168.210.0/25</t>
-  </si>
-  <si>
-    <t>OfficeSRV</t>
-  </si>
-  <si>
-    <t>DCSRV</t>
-  </si>
-  <si>
-    <t>Подсеть серверов в Датацентре</t>
-  </si>
-  <si>
-    <t>192.168.210.0</t>
-  </si>
-  <si>
-    <t>192.168.210.1-192.168.210.127</t>
-  </si>
-  <si>
-    <t>192.168.210.1</t>
-  </si>
-  <si>
-    <t>192.168.210.2</t>
-  </si>
-  <si>
-    <t>192.168.210.3</t>
-  </si>
-  <si>
-    <t>192.168.210.4</t>
-  </si>
-  <si>
-    <t>192.168.210.5</t>
-  </si>
-  <si>
-    <t>192.168.210.6</t>
-  </si>
-  <si>
-    <t>192.168.210.7</t>
-  </si>
-  <si>
-    <t>192.168.210.8</t>
-  </si>
-  <si>
-    <t>192.168.210.9</t>
-  </si>
-  <si>
-    <t>192.168.210.10</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>192.168.113.0/28</t>
-  </si>
-  <si>
-    <t>DCMGM</t>
-  </si>
-  <si>
-    <t>Подсеть менеджмента в офисе</t>
-  </si>
-  <si>
-    <t>Printer0</t>
-  </si>
-  <si>
-    <t>Printer1</t>
-  </si>
-  <si>
-    <t>Printer2</t>
-  </si>
-  <si>
-    <t>Printer3</t>
-  </si>
-  <si>
-    <t>Printer4</t>
-  </si>
-  <si>
-    <t>Printer5</t>
-  </si>
-  <si>
-    <t>Printer6</t>
-  </si>
-  <si>
-    <t>192.168.113.0</t>
-  </si>
-  <si>
-    <t>192.168.113.1-192.168.113.254</t>
-  </si>
-  <si>
-    <t>192.168.113.1</t>
-  </si>
-  <si>
-    <t>192.168.113.2</t>
-  </si>
-  <si>
-    <t>192.168.113.3</t>
-  </si>
-  <si>
-    <t>192.168.113.4</t>
-  </si>
-  <si>
-    <t>192.168.113.5</t>
-  </si>
-  <si>
-    <t>192.168.113.6</t>
-  </si>
-  <si>
-    <t>192.168.113.7</t>
-  </si>
-  <si>
-    <t>192.168.113.8</t>
-  </si>
-  <si>
-    <t>192.168.113.9</t>
-  </si>
-  <si>
-    <t>192.168.113.10</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>vlan</t>
-  </si>
-  <si>
-    <t>Etherchannel</t>
-  </si>
-  <si>
-    <t>HSRP</t>
-  </si>
-  <si>
-    <t>ACL</t>
-  </si>
-  <si>
-    <t>Portsecurity</t>
-  </si>
-  <si>
-    <t>ISP + Services</t>
-  </si>
-  <si>
-    <t>WLAN</t>
-  </si>
-  <si>
-    <t>Address Table</t>
-  </si>
-  <si>
-    <t>vlan routing (SVI)</t>
-  </si>
-  <si>
-    <t>Switch off ports + portfast</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>192.168.250.1</t>
-  </si>
-  <si>
-    <t>192.168.250.2</t>
-  </si>
-  <si>
-    <t>192.168.250.3</t>
-  </si>
-  <si>
-    <t>192.168.250.4</t>
-  </si>
-  <si>
-    <t>192.168.250.5</t>
-  </si>
-  <si>
-    <t>192.168.250.6</t>
-  </si>
-  <si>
-    <t>192.168.250.7</t>
-  </si>
-  <si>
-    <t>192.168.250.8</t>
-  </si>
-  <si>
-    <t>192.168.250.9</t>
-  </si>
-  <si>
-    <t>192.168.250.10</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>ISServices</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>IT Jump</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>SSH</t>
-  </si>
-  <si>
-    <t>Подсеть менеджмент в датацентре</t>
-  </si>
-  <si>
-    <t>PARKINGLOT</t>
-  </si>
-  <si>
-    <t>BackUp?</t>
-  </si>
-  <si>
-    <t>BackupSRV</t>
-  </si>
-  <si>
-    <t>DCL3SW1</t>
-  </si>
-  <si>
-    <t>DCL3SW2</t>
-  </si>
-  <si>
-    <t>SW-DC</t>
-  </si>
-  <si>
-    <t>RVSTP</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Настроен в DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На всех коммутаторах созданы. </t>
-  </si>
-  <si>
-    <t>Настроено в DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В офисе LACP, в DC PAgP подняты </t>
-  </si>
-  <si>
-    <t>RVSTP включен на всех необходимых устройствах. Не настроен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSPF </t>
-  </si>
-  <si>
-    <t>Включен на L3, заданы Router-ID</t>
-  </si>
-  <si>
-    <t>192.+H8:K34168.0.2</t>
-  </si>
-  <si>
-    <t>DSW1</t>
-  </si>
-  <si>
-    <t>DSW2</t>
-  </si>
-  <si>
-    <t>SrvSW</t>
-  </si>
-  <si>
-    <t>AccSW1</t>
-  </si>
-  <si>
-    <t>AccSW2</t>
-  </si>
-  <si>
-    <t>SecSW</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>Wi-Fi</t>
+    <t>src W/mask</t>
+  </si>
+  <si>
+    <t>Dst W/Mask</t>
+  </si>
+  <si>
+    <t>int vlan 2</t>
+  </si>
+  <si>
+    <t>int vlan 13</t>
+  </si>
+  <si>
+    <t>int vlan 15</t>
+  </si>
+  <si>
+    <t>int vlan 17</t>
+  </si>
+  <si>
+    <t>ip access-group</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permit ip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.210.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.0.127  </t>
+  </si>
+  <si>
+    <t>deny ip any any</t>
+  </si>
+  <si>
+    <t>int vlan 210</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>int vlan 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny ip </t>
+  </si>
+  <si>
+    <t>Vlan</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Wmask</t>
+  </si>
+  <si>
+    <t>int vlan 100</t>
+  </si>
+  <si>
+    <t>int vlan 200</t>
+  </si>
+  <si>
+    <t>int vlan 250</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +1052,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +1108,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -930,11 +1479,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,22 +1585,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +1628,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,15 +1653,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,6 +1664,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +2001,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1324,53 +2017,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
+      <c r="E1" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="H2" s="33" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="H2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="M2" s="18" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="M2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
+      <c r="R2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1385,6 +2081,9 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1413,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1433,7 +2132,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
@@ -1463,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>0</v>
@@ -1485,24 +2187,27 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="M5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="R5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26"/>
+      <c r="E5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="R5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1517,40 +2222,43 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1567,76 +2275,86 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>113</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="M8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="P8" s="5"/>
       <c r="R8" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="U8" s="5"/>
     </row>
@@ -1645,125 +2363,132 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="8"/>
       <c r="M9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>210</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="P10" s="5"/>
       <c r="R10" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="U10" s="5"/>
       <c r="W10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="P11" s="5"/>
       <c r="R11" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="U11" s="5"/>
     </row>
@@ -1780,112 +2505,116 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>15</v>
-      </c>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="M12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="P12" s="5"/>
       <c r="R12" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="27">
         <v>777</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="M13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="P13" s="5"/>
       <c r="R13" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>2</v>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="5" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H15" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
       <c r="M15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1893,19 +2622,25 @@
       <c r="O15" s="1"/>
       <c r="P15" s="5"/>
       <c r="R15" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="H16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="M16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1913,84 +2648,97 @@
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
       <c r="R16" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="R18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="20"/>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="M18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="R18" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="M19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>17</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="8"/>
       <c r="M20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2017,196 +2765,190 @@
       </c>
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H21" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="M21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="26"/>
-      <c r="R21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
-    </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H22" s="14" t="s">
+      <c r="M21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="R21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
+    </row>
+    <row r="22" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="N22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="O22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="P22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="R22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="S22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="T22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="U22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="M23" s="3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="M24" s="3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="P24" s="5"/>
       <c r="R24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>17</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="M25" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="P25" s="5"/>
       <c r="R25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H26" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="M26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="M26" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P26" s="5"/>
       <c r="R26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="5"/>
       <c r="R27" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2214,111 +2956,111 @@
     </row>
     <row r="28" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>999</v>
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="5"/>
       <c r="R28" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
+      <c r="H29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="M29" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="5"/>
       <c r="R29" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>2</v>
-      </c>
+    <row r="30" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="8"/>
       <c r="M30" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="5"/>
       <c r="R30" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="5"/>
     </row>
     <row r="31" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="H31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="8"/>
       <c r="M31" s="3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="5"/>
       <c r="R31" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
       <c r="M32" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="R32" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2326,43 +3068,43 @@
     </row>
     <row r="33" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H34" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="M34" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="35"/>
+      <c r="H34" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="M34" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="8:34" x14ac:dyDescent="0.25">
@@ -2370,19 +3112,19 @@
         <v>21</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>0</v>
@@ -2392,65 +3134,67 @@
       </c>
     </row>
     <row r="37" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H37" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="M37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
+      <c r="H37" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
+      <c r="M37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="12" t="s">
+      <c r="O38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE39" s="9"/>
       <c r="AF39" s="10"/>
@@ -2459,23 +3203,23 @@
     </row>
     <row r="40" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="K40" s="5"/>
       <c r="M40" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N40" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="P40" s="5"/>
       <c r="AE40" s="9"/>
@@ -2483,25 +3227,25 @@
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
     </row>
-    <row r="41" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="5"/>
+    <row r="41" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" s="8"/>
       <c r="M41" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N41" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="P41" s="5"/>
       <c r="AE41" s="9"/>
@@ -2509,23 +3253,25 @@
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
     </row>
-    <row r="42" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="5"/>
+    <row r="42" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="M42" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="P42" s="5"/>
       <c r="AE42" s="9"/>
@@ -2534,22 +3280,14 @@
       <c r="AH42" s="10"/>
     </row>
     <row r="43" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="5"/>
       <c r="M43" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="P43" s="5"/>
       <c r="AE43" s="9"/>
@@ -2558,22 +3296,14 @@
       <c r="AH43" s="10"/>
     </row>
     <row r="44" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="5"/>
       <c r="M44" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="P44" s="5"/>
       <c r="AE44" s="9"/>
@@ -2582,16 +3312,8 @@
       <c r="AH44" s="10"/>
     </row>
     <row r="45" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="5"/>
       <c r="M45" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2602,16 +3324,8 @@
       <c r="AH45" s="10"/>
     </row>
     <row r="46" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="5"/>
       <c r="M46" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2622,16 +3336,8 @@
       <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="5"/>
       <c r="M47" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2642,45 +3348,35 @@
       <c r="AH47" s="10"/>
     </row>
     <row r="48" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
       <c r="M48" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="R18:U18"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="M21:P21"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H26:K26"/>
     <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H34:K34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,11 +3384,1813 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF8D38A-1E37-4E1D-B047-0101B0744AF6}">
+  <dimension ref="A1:AD52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25:AD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="7" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="46"/>
+    <col min="15" max="15" width="11.42578125" style="46" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="46"/>
+    <col min="18" max="18" width="26.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="47" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="47" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="47" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="46"/>
+    <col min="25" max="25" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="24.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB1" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC1" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD1" s="49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>2</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
+      <c r="Z2" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>13</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="Q3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="Y3" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA3" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB3" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC3" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD3" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>15</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="51"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z4" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA4" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>17</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z5" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA5" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>100</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="S6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>113</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="U7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z7" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC7" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>200</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="S8" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="Z8" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>210</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="Z9" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA9" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB9" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC9" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD9" s="51"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>250</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="Z10" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>999</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="57"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="Z11" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="Z12" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S13" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="Z13" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA13" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB13" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q15" s="62"/>
+      <c r="R15" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z15" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA15" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="W16" s="74"/>
+      <c r="Y16" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z16" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA16" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC16" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z17" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA17" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB17" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC17" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U18" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="V18" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z18" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA18" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB18" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC18" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD18" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S19" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V19" s="64"/>
+      <c r="Z19" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA19" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB19" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC19" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="Z20" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA20" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD20" s="68"/>
+    </row>
+    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="Z21" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+    </row>
+    <row r="22" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S22" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="Z22" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+    </row>
+    <row r="23" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="Z23" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA23" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB23" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+    </row>
+    <row r="24" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S24" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+    </row>
+    <row r="25" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="Q25" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U25" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z25" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA25" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+    </row>
+    <row r="26" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U26" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z26" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA26" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB26" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC26" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U27" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="V27" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y27" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA27" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB27" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U28" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z28" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA28" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC28" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="Q29" s="62"/>
+      <c r="R29" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S29" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V29" s="64"/>
+      <c r="Z29" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA29" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC29" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD29" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="Q30" s="62"/>
+      <c r="R30" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="Z30" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA30" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB30" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC30" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD30" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="Q31" s="62"/>
+      <c r="R31" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="Z31" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA31" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB31" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC31" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="Q32" s="62"/>
+      <c r="R32" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S32" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="Z32" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA32" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB32" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC32" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD32" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Z33" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA33" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC33" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD33" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q34" s="62"/>
+      <c r="R34" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S34" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="Z34" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA34" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB34" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC34" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD34" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q35" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S35" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z35" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA35" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB35" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC35" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD35" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q36" s="62"/>
+      <c r="R36" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S36" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U36" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="V36" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z36" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA36" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB36" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC36" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD36" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q37" s="62"/>
+      <c r="R37" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S37" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U37" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="V37" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z37" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+    </row>
+    <row r="38" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q38" s="62"/>
+      <c r="R38" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S38" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V38" s="64"/>
+      <c r="Z38" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+    </row>
+    <row r="39" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q39" s="62"/>
+      <c r="R39" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="Z39" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA39" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB39" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+    </row>
+    <row r="40" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q40" s="62"/>
+      <c r="R40" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+    </row>
+    <row r="41" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q41" s="62"/>
+      <c r="R41" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S41" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="Z41" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA41" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+    </row>
+    <row r="42" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Y42" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z42" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA42" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB42" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC42" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD42" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S43" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="Z43" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA43" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB43" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC43" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD43" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q44" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S44" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="T44" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U44" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="V44" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z44" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA44" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD44" s="64"/>
+    </row>
+    <row r="45" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q45" s="62"/>
+      <c r="R45" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S45" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="T45" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U45" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z45" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+    </row>
+    <row r="46" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q46" s="62"/>
+      <c r="R46" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S46" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="T46" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U46" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z46" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64"/>
+    </row>
+    <row r="47" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q47" s="62"/>
+      <c r="R47" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="S47" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="T47" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U47" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="V47" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z47" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA47" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB47" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="64"/>
+    </row>
+    <row r="48" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q48" s="62"/>
+      <c r="R48" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S48" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T48" s="64"/>
+      <c r="U48" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V48" s="64"/>
+    </row>
+    <row r="49" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q49" s="62"/>
+      <c r="R49" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="Z49" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA49" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="64"/>
+    </row>
+    <row r="50" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q50" s="62"/>
+      <c r="R50" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="S50" s="64"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="Y50" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z50" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA50" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB50" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC50" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD50" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q51" s="62"/>
+      <c r="R51" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S51" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="T51" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="Z51" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA51" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB51" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC51" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD51" s="64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Z52" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA52" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD52" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D4D11-F3F1-4BBC-958C-BAEB76AFD1FE}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,101 +5200,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>130</v>
+      <c r="A1" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>138</v>
+      <c r="A2" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
+      <c r="A3" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
+      <c r="A4" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>140</v>
+      <c r="A5" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
+      <c r="A6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
+      <c r="A7" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
+      <c r="A8" s="15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
+      <c r="A9" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>137</v>
+      <c r="A11" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" t="s">
-        <v>175</v>
+      <c r="A13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>135</v>
+      <c r="A15" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>141</v>
+      <c r="A16" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2804,20 +5285,762 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F777CBB-2556-4F1C-A288-849AD6A03688}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A152199E-21C3-40A8-8802-9AB6DD02800C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Addresses table.xlsx
+++ b/Project/Addresses table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C96221-A5A6-448A-AFC3-FEB9DAE58858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEF166-1F8D-44E1-B474-7046303ADA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-32400" windowWidth="21840" windowHeight="38040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="347">
   <si>
     <t>VLAN</t>
   </si>
@@ -1032,6 +1032,48 @@
   </si>
   <si>
     <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>порты</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>conf t</t>
+  </si>
+  <si>
+    <t>ip domain-name my-otus-project.org</t>
+  </si>
+  <si>
+    <t>crypto key generate rsa general-keys modulus 2048</t>
+  </si>
+  <si>
+    <t>username admin privilege 15 password cisco</t>
+  </si>
+  <si>
+    <t>ip ssh ver 2</t>
+  </si>
+  <si>
+    <t>line vty 0 4</t>
+  </si>
+  <si>
+    <t>transport input ssh</t>
+  </si>
+  <si>
+    <t>password cisco</t>
+  </si>
+  <si>
+    <t>login local</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>permit tcp</t>
+  </si>
+  <si>
+    <t>int vlan 999</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1131,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1563,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1709,6 +1757,8 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1991,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
@@ -3385,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF8D38A-1E37-4E1D-B047-0101B0744AF6}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25:AD52"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V87" sqref="V87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3458,8 @@
     <col min="13" max="13" width="7" style="46" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="46"/>
     <col min="15" max="15" width="11.42578125" style="46" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="46"/>
+    <col min="16" max="16" width="9.140625" style="46"/>
+    <col min="17" max="17" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.85546875" style="47" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.42578125" style="47" customWidth="1"/>
     <col min="20" max="20" width="19.140625" style="47" customWidth="1"/>
@@ -3542,15 +3593,15 @@
         <v>17</v>
       </c>
       <c r="E3" s="52"/>
-      <c r="F3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="51"/>
       <c r="K3" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -3655,11 +3706,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
@@ -3846,7 +3897,7 @@
         <v>306</v>
       </c>
       <c r="S8" s="54" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="T8" s="54"/>
       <c r="U8" s="54" t="s">
@@ -3883,7 +3934,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="52"/>
@@ -3897,11 +3948,15 @@
       </c>
       <c r="Q9" s="53"/>
       <c r="R9" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="S9" s="54"/>
+        <v>305</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>307</v>
+      </c>
       <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
+      <c r="U9" s="54" t="s">
+        <v>307</v>
+      </c>
       <c r="V9" s="54"/>
       <c r="Z9" s="51" t="s">
         <v>317</v>
@@ -3943,7 +3998,7 @@
       <c r="O10" s="52"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="S10" s="54"/>
       <c r="T10" s="54"/>
@@ -3983,14 +4038,10 @@
       <c r="O11" s="57"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="S11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="54" t="s">
-        <v>316</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
       <c r="U11" s="54"/>
       <c r="V11" s="54"/>
       <c r="Z11" s="51" t="s">
@@ -4027,6 +4078,18 @@
       <c r="M12" s="52"/>
       <c r="N12" s="51"/>
       <c r="O12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="S12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
       <c r="Z12" s="51" t="s">
         <v>322</v>
       </c>
@@ -4045,16 +4108,6 @@
       <c r="C13" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
       <c r="Z13" s="51" t="s">
         <v>315</v>
       </c>
@@ -4077,27 +4130,21 @@
       <c r="C14" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="62" t="s">
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="U14" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="64" t="s">
-        <v>197</v>
-      </c>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q15" s="62"/>
+      <c r="Q15" s="62" t="s">
+        <v>17</v>
+      </c>
       <c r="R15" s="64" t="s">
         <v>306</v>
       </c>
@@ -4108,10 +4155,10 @@
         <v>197</v>
       </c>
       <c r="U15" s="64" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Z15" s="67" t="s">
         <v>302</v>
@@ -4125,12 +4172,12 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="66"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -4172,18 +4219,18 @@
     </row>
     <row r="17" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="66"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="64" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="S17" s="64" t="s">
         <v>30</v>
@@ -4207,7 +4254,7 @@
         <v>188</v>
       </c>
       <c r="AC17" s="68" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="AD17" s="68" t="s">
         <v>188</v>
@@ -4215,31 +4262,27 @@
     </row>
     <row r="18" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="66"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="66"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S18" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="64" t="s">
-        <v>197</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="T18" s="64"/>
       <c r="U18" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="V18" s="64" t="s">
-        <v>195</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="V18" s="64"/>
       <c r="Z18" s="68" t="s">
         <v>317</v>
       </c>
@@ -4250,103 +4293,95 @@
         <v>188</v>
       </c>
       <c r="AC18" s="68" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AD18" s="68" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="66"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="66"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="S19" s="64" t="s">
-        <v>307</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="S19" s="64"/>
       <c r="T19" s="64"/>
-      <c r="U19" s="64" t="s">
-        <v>307</v>
-      </c>
+      <c r="U19" s="64"/>
       <c r="V19" s="64"/>
       <c r="Z19" s="68" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AA19" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB19" s="68" t="s">
-        <v>188</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AB19" s="68"/>
       <c r="AC19" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD19" s="68" t="s">
-        <v>177</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AD19" s="68"/>
     </row>
     <row r="20" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="66"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="64" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="S20" s="64"/>
       <c r="T20" s="64"/>
       <c r="U20" s="64"/>
       <c r="V20" s="64"/>
       <c r="Z20" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA20" s="68" t="s">
-        <v>307</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AA20" s="68"/>
       <c r="AB20" s="68"/>
-      <c r="AC20" s="68" t="s">
-        <v>307</v>
-      </c>
+      <c r="AC20" s="68"/>
       <c r="AD20" s="68"/>
     </row>
     <row r="21" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="66"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+        <v>315</v>
+      </c>
+      <c r="S21" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="64" t="s">
+        <v>316</v>
+      </c>
       <c r="U21" s="64"/>
       <c r="V21" s="64"/>
       <c r="Z21" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA21" s="68"/>
       <c r="AB21" s="68"/>
@@ -4355,94 +4390,91 @@
     </row>
     <row r="22" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="66"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="64" t="s">
+      <c r="Z22" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="S22" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="T22" s="64" t="s">
+      <c r="AA22" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB22" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="Z22" s="68" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
       <c r="AD22" s="68"/>
     </row>
     <row r="23" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="66"/>
-      <c r="K23" s="62"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="66"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
-      <c r="Z23" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA23" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB23" s="68" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S23" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
     </row>
     <row r="24" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="62"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="66"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63" t="s">
-        <v>302</v>
+      <c r="Q24" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="S24" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
+        <v>43</v>
+      </c>
+      <c r="T24" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="64" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="62"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="66"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
-      <c r="Q25" s="62" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q25" s="62"/>
       <c r="R25" s="64" t="s">
         <v>305</v>
       </c>
@@ -4453,29 +4485,20 @@
         <v>188</v>
       </c>
       <c r="U25" s="64" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="V25" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z25" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA25" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="26" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="66"/>
-      <c r="K26" s="62"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="66"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -4490,35 +4513,20 @@
         <v>188</v>
       </c>
       <c r="U26" s="64" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="V26" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="Z26" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA26" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB26" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC26" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD26" s="64" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="27" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="66"/>
-      <c r="K27" s="62"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="66"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -4533,44 +4541,26 @@
         <v>188</v>
       </c>
       <c r="U27" s="64" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="V27" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y27" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z27" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA27" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB27" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC27" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD27" s="64" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="66"/>
-      <c r="K28" s="62"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="66"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S28" s="64" t="s">
         <v>43</v>
@@ -4579,31 +4569,14 @@
         <v>188</v>
       </c>
       <c r="U28" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="V28" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z28" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA28" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB28" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC28" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD28" s="64" t="s">
-        <v>188</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="V28" s="62"/>
     </row>
     <row r="29" spans="5:30" x14ac:dyDescent="0.25">
       <c r="Q29" s="62"/>
       <c r="R29" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S29" s="64" t="s">
         <v>307</v>
@@ -4612,22 +4585,7 @@
       <c r="U29" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="V29" s="64"/>
-      <c r="Z29" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA29" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB29" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC29" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD29" s="64" t="s">
-        <v>195</v>
-      </c>
+      <c r="V29" s="62"/>
     </row>
     <row r="30" spans="5:30" x14ac:dyDescent="0.25">
       <c r="Q30" s="62"/>
@@ -4638,21 +4596,6 @@
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
       <c r="V30" s="64"/>
-      <c r="Z30" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA30" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB30" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC30" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD30" s="64" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="31" spans="5:30" x14ac:dyDescent="0.25">
       <c r="Q31" s="62"/>
@@ -4663,21 +4606,6 @@
       <c r="T31" s="64"/>
       <c r="U31" s="64"/>
       <c r="V31" s="64"/>
-      <c r="Z31" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA31" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB31" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC31" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD31" s="64" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="32" spans="5:30" x14ac:dyDescent="0.25">
       <c r="Q32" s="62"/>
@@ -4692,40 +4620,8 @@
       </c>
       <c r="U32" s="64"/>
       <c r="V32" s="64"/>
-      <c r="Z32" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA32" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB32" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC32" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD32" s="64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Z33" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA33" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB33" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC33" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD33" s="64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q34" s="62"/>
       <c r="R34" s="63" t="s">
         <v>302</v>
@@ -4736,23 +4632,8 @@
       <c r="T34" s="64"/>
       <c r="U34" s="64"/>
       <c r="V34" s="64"/>
-      <c r="Z34" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA34" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB34" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC34" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD34" s="64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="62" t="s">
         <v>9</v>
       </c>
@@ -4771,23 +4652,8 @@
       <c r="V35" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="Z35" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA35" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB35" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC35" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD35" s="64" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="62"/>
       <c r="R36" s="64" t="s">
         <v>305</v>
@@ -4804,23 +4670,8 @@
       <c r="V36" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="Z36" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA36" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB36" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC36" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD36" s="64" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="62"/>
       <c r="R37" s="64" t="s">
         <v>305</v>
@@ -4837,169 +4688,87 @@
       <c r="V37" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="Z37" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-    </row>
-    <row r="38" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q38" s="62"/>
       <c r="R38" s="64" t="s">
         <v>306</v>
       </c>
       <c r="S38" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="T38" s="64"/>
+        <v>48</v>
+      </c>
+      <c r="T38" s="64" t="s">
+        <v>188</v>
+      </c>
       <c r="U38" s="64" t="s">
         <v>307</v>
       </c>
       <c r="V38" s="64"/>
-      <c r="Z38" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64"/>
-    </row>
-    <row r="39" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q39" s="62"/>
       <c r="R39" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="S39" s="64"/>
+        <v>305</v>
+      </c>
+      <c r="S39" s="64" t="s">
+        <v>307</v>
+      </c>
       <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
+      <c r="U39" s="64" t="s">
+        <v>307</v>
+      </c>
       <c r="V39" s="64"/>
-      <c r="Z39" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA39" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB39" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-    </row>
-    <row r="40" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q40" s="62"/>
       <c r="R40" s="64" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="S40" s="64"/>
       <c r="T40" s="64"/>
       <c r="U40" s="64"/>
       <c r="V40" s="64"/>
     </row>
-    <row r="41" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q41" s="62"/>
       <c r="R41" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="S41" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="64" t="s">
-        <v>316</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
       <c r="U41" s="64"/>
       <c r="V41" s="64"/>
-      <c r="Z41" s="63" t="s">
+    </row>
+    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q42" s="62"/>
+      <c r="R42" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S42" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+    </row>
+    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="AA41" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB41" s="64"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="64"/>
-    </row>
-    <row r="42" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Y42" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z42" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA42" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB42" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC42" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD42" s="64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q43" s="62"/>
-      <c r="R43" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="S43" s="64" t="s">
+      <c r="S44" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="Z43" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA43" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB43" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC43" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD43" s="64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q44" s="62" t="s">
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+    </row>
+    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q45" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="R44" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="S44" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="T44" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="U44" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="V44" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z44" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA44" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD44" s="64"/>
-    </row>
-    <row r="45" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q45" s="62"/>
       <c r="R45" s="64" t="s">
         <v>306</v>
       </c>
@@ -5010,20 +4779,13 @@
         <v>190</v>
       </c>
       <c r="U45" s="64" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="V45" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z45" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-    </row>
-    <row r="46" spans="17:30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q46" s="62"/>
       <c r="R46" s="64" t="s">
         <v>306</v>
@@ -5035,20 +4797,13 @@
         <v>190</v>
       </c>
       <c r="U46" s="64" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V46" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="Z46" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA46" s="64"/>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="64"/>
-      <c r="AD46" s="64"/>
-    </row>
-    <row r="47" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q47" s="62"/>
       <c r="R47" s="64" t="s">
         <v>306</v>
@@ -5060,125 +4815,491 @@
         <v>190</v>
       </c>
       <c r="U47" s="64" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="V47" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z47" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA47" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB47" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="64"/>
-    </row>
-    <row r="48" spans="17:30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q48" s="62"/>
       <c r="R48" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S48" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="T48" s="64"/>
+        <v>308</v>
+      </c>
+      <c r="T48" s="64" t="s">
+        <v>190</v>
+      </c>
       <c r="U48" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="V48" s="64"/>
-    </row>
-    <row r="49" spans="17:30" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="V48" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q49" s="62"/>
       <c r="R49" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="S49" s="64"/>
+        <v>305</v>
+      </c>
+      <c r="S49" s="64" t="s">
+        <v>307</v>
+      </c>
       <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
+      <c r="U49" s="64" t="s">
+        <v>307</v>
+      </c>
       <c r="V49" s="64"/>
-      <c r="Z49" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA49" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="64"/>
-    </row>
-    <row r="50" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q50" s="62"/>
       <c r="R50" s="64" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="S50" s="64"/>
       <c r="T50" s="64"/>
       <c r="U50" s="64"/>
       <c r="V50" s="64"/>
-      <c r="Y50" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z50" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA50" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB50" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC50" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD50" s="64" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="17:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q51" s="62"/>
       <c r="R51" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="S51" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="T51" s="64" t="s">
-        <v>316</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
       <c r="U51" s="64"/>
       <c r="V51" s="64"/>
-      <c r="Z51" s="64" t="s">
+    </row>
+    <row r="52" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q52" s="62"/>
+      <c r="R52" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S52" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="T52" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+    </row>
+    <row r="54" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S54" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+    </row>
+    <row r="55" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q55" s="62"/>
+      <c r="R55" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S55" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T55" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U55" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="V55" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q56" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S56" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T56" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U56" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="V56" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q57" s="62"/>
+      <c r="R57" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="T57" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="U57" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V57" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q58" s="62"/>
+      <c r="R58" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="T58" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="U58" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="V58" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q59" s="62"/>
+      <c r="R59" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S59" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T59" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U59" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="V59" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q60" s="62"/>
+      <c r="R60" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S60" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T60" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U60" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="V60" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q61" s="62"/>
+      <c r="R61" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S61" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T61" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U61" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V61" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q62" s="62"/>
+      <c r="R62" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="S62" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V62" s="64"/>
+    </row>
+    <row r="63" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q63" s="62"/>
+      <c r="R63" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+    </row>
+    <row r="64" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q64" s="62"/>
+      <c r="R64" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+    </row>
+    <row r="65" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q65" s="62"/>
+      <c r="R65" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S65" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T65" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+    </row>
+    <row r="68" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+    </row>
+    <row r="69" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S69" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+    </row>
+    <row r="70" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q70" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="R70" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S70" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="T70" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U70" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q71" s="62"/>
+      <c r="R71" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="S71" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="T71" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="U71" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="V71" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q72" s="62"/>
+      <c r="R72" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="AA51" s="64" t="s">
+      <c r="S72" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="T72" s="64"/>
+      <c r="U72" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V72" s="64"/>
+    </row>
+    <row r="73" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q73" s="62"/>
+      <c r="R73" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+    </row>
+    <row r="74" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q74" s="62"/>
+      <c r="R74" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+    </row>
+    <row r="75" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q75" s="62"/>
+      <c r="R75" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S75" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T75" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+    </row>
+    <row r="76" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+    </row>
+    <row r="77" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q77" s="62"/>
+      <c r="R77" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S77" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="T77" s="64"/>
+      <c r="U77" s="64"/>
+      <c r="V77" s="64"/>
+    </row>
+    <row r="78" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q78" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R78" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="AB51" s="64" t="s">
+      <c r="T78" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AC51" s="64" t="s">
+      <c r="U78" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="V78" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q79" s="62"/>
+      <c r="R79" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="S79" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="T79" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U79" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="AD51" s="64" t="s">
+      <c r="V79" s="64" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Z52" s="64" t="s">
+    <row r="80" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q80" s="62"/>
+      <c r="R80" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="AA52" s="64" t="s">
+      <c r="S80" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="T80" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U80" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64" t="s">
+      <c r="V80" s="64"/>
+    </row>
+    <row r="81" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q81" s="62"/>
+      <c r="R81" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="S81" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="AD52" s="64"/>
+      <c r="T81" s="64"/>
+      <c r="U81" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="V81" s="64"/>
+    </row>
+    <row r="82" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q82" s="62"/>
+      <c r="R82" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="S82" s="64"/>
+      <c r="T82" s="64"/>
+      <c r="U82" s="64"/>
+      <c r="V82" s="64"/>
+    </row>
+    <row r="83" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q83" s="62"/>
+      <c r="R83" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="S83" s="64"/>
+      <c r="T83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+    </row>
+    <row r="84" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q84" s="62"/>
+      <c r="R84" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="T84" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5190,7 +5311,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,12 +5382,15 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="76" t="s">
         <v>115</v>
       </c>
+      <c r="B13" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5681,10 +5805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A152199E-21C3-40A8-8802-9AB6DD02800C}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6043,6 +6167,61 @@
         <v>268</v>
       </c>
     </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
